--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9487" uniqueCount="913">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -912,10 +912,10 @@
     <t>Visit type</t>
   </si>
   <si>
-    <t>Mapped to inpatient or outpatient visit type.</t>
-  </si>
-  <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/claim-visit-type-codes</t>
+    <t>Mention the visit type.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/claim-visit-type</t>
   </si>
   <si>
     <t>Claim.type.text</t>
@@ -2168,10 +2168,10 @@
     <t>Claim.item</t>
   </si>
   <si>
-    <t>Item Reference</t>
-  </si>
-  <si>
-    <t>Specifies the reference to the Medication or ActivityDefinition.</t>
+    <t>Product or service provided</t>
+  </si>
+  <si>
+    <t>A claim line. Either a simple  product or service or a 'group' of details which can each be a simple items or groups of sub-details.</t>
   </si>
   <si>
     <t>The items to be processed for adjudication.</t>
@@ -2196,10 +2196,10 @@
 </t>
   </si>
   <si>
-    <t>Item Reference (Claim)</t>
-  </si>
-  <si>
-    <t>The reference to the Medication or ActivityDefinition for an item within a Claim.</t>
+    <t>Item Reference</t>
+  </si>
+  <si>
+    <t>Specifies the reference to the Medication or ActivityDefinition.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2312,10 +2312,10 @@
 Bill CodeService Code</t>
   </si>
   <si>
-    <t>Item Code</t>
-  </si>
-  <si>
-    <t>Service or Item Code.</t>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Service or Item Name.</t>
   </si>
   <si>
     <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
@@ -2342,7 +2342,7 @@
     <t>Claim.item.productOrService.text</t>
   </si>
   <si>
-    <t>Item/Service Code</t>
+    <t>Item/Service Name</t>
   </si>
   <si>
     <t>Claim.item.modifier</t>
@@ -2703,9 +2703,6 @@
   </si>
   <si>
     <t>Claim.item.detail</t>
-  </si>
-  <si>
-    <t>Product or service provided</t>
   </si>
   <si>
     <t>A claim detail line. Either a simple (a product or service) or a 'group' of sub-details which are simple items.</t>
@@ -29220,10 +29217,10 @@
         <v>381</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
@@ -29305,7 +29302,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29414,7 +29411,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29525,7 +29522,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29638,7 +29635,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29720,7 +29717,7 @@
         <v>77</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>85</v>
@@ -29749,7 +29746,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29831,7 +29828,7 @@
         <v>77</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>75</v>
@@ -29860,7 +29857,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29886,10 +29883,10 @@
         <v>175</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L240" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="M240" t="s" s="2">
         <v>733</v>
@@ -29923,11 +29920,11 @@
         <v>298</v>
       </c>
       <c r="X240" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="Y240" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="Y240" t="s" s="2">
-        <v>878</v>
-      </c>
       <c r="Z240" t="s" s="2">
         <v>77</v>
       </c>
@@ -29944,7 +29941,7 @@
         <v>77</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>75</v>
@@ -29973,7 +29970,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -29999,10 +29996,10 @@
         <v>175</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>740</v>
@@ -30057,7 +30054,7 @@
         <v>77</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>85</v>
@@ -30086,7 +30083,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30112,13 +30109,13 @@
         <v>175</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L242" t="s" s="2">
         <v>751</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N242" t="s" s="2">
         <v>753</v>
@@ -30170,7 +30167,7 @@
         <v>77</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>75</v>
@@ -30199,7 +30196,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30283,7 +30280,7 @@
         <v>77</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>75</v>
@@ -30312,7 +30309,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30394,7 +30391,7 @@
         <v>77</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>75</v>
@@ -30423,7 +30420,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30505,7 +30502,7 @@
         <v>77</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>75</v>
@@ -30534,7 +30531,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30618,7 +30615,7 @@
         <v>77</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>75</v>
@@ -30647,7 +30644,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30731,7 +30728,7 @@
         <v>77</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>75</v>
@@ -30760,7 +30757,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30842,7 +30839,7 @@
         <v>77</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>75</v>
@@ -30871,7 +30868,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30897,10 +30894,10 @@
         <v>381</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="L249" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
@@ -30953,7 +30950,7 @@
         <v>77</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>75</v>
@@ -30982,7 +30979,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31091,7 +31088,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31202,7 +31199,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31315,7 +31312,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31397,7 +31394,7 @@
         <v>77</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>85</v>
@@ -31426,7 +31423,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31508,7 +31505,7 @@
         <v>77</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>75</v>
@@ -31537,7 +31534,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31563,10 +31560,10 @@
         <v>175</v>
       </c>
       <c r="K255" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>733</v>
@@ -31600,11 +31597,11 @@
         <v>298</v>
       </c>
       <c r="X255" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="Y255" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="Y255" t="s" s="2">
-        <v>878</v>
-      </c>
       <c r="Z255" t="s" s="2">
         <v>77</v>
       </c>
@@ -31621,7 +31618,7 @@
         <v>77</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>75</v>
@@ -31650,7 +31647,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31676,10 +31673,10 @@
         <v>175</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>881</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>740</v>
@@ -31734,7 +31731,7 @@
         <v>77</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>85</v>
@@ -31763,7 +31760,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31789,13 +31786,13 @@
         <v>175</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L257" t="s" s="2">
         <v>751</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N257" t="s" s="2">
         <v>753</v>
@@ -31847,7 +31844,7 @@
         <v>77</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>75</v>
@@ -31876,7 +31873,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31960,7 +31957,7 @@
         <v>77</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>75</v>
@@ -31989,7 +31986,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32071,7 +32068,7 @@
         <v>77</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>75</v>
@@ -32100,7 +32097,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32182,7 +32179,7 @@
         <v>77</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>75</v>
@@ -32211,7 +32208,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32295,7 +32292,7 @@
         <v>77</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>75</v>
@@ -32324,7 +32321,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32408,7 +32405,7 @@
         <v>77</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>75</v>
@@ -32437,7 +32434,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32519,7 +32516,7 @@
         <v>77</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>75</v>
@@ -32548,7 +32545,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32574,14 +32571,14 @@
         <v>819</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>77</v>
@@ -32630,7 +32627,7 @@
         <v>77</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>75</v>
@@ -32659,7 +32656,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32768,7 +32765,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32879,7 +32876,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32992,7 +32989,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2312,10 +2312,10 @@
 Bill CodeService Code</t>
   </si>
   <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Service or Item Name.</t>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Service or Item Code.</t>
   </si>
   <si>
     <t>If this is an actual service or product line, i.e. not a Group, then use code to indicate the Professional Service or Product supplied (e.g. CTP, HCPCS, USCLS, ICD10, NCPDP, DIN, RxNorm, ACHI, CCI). If a grouping item then use a group code to indicate the type of thing being grouped e.g. 'glasses' or 'compound'.</t>
@@ -2342,7 +2342,7 @@
     <t>Claim.item.productOrService.text</t>
   </si>
   <si>
-    <t>Item/Service Name</t>
+    <t>Item/Service Code</t>
   </si>
   <si>
     <t>Claim.item.modifier</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-claim.xlsx
+++ b/StructureDefinition-openimis-claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
